--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>Flow Type</t>
   </si>
@@ -245,6 +245,42 @@
   </si>
   <si>
     <t>Invoice1669556</t>
+  </si>
+  <si>
+    <t>Invoice1802129</t>
+  </si>
+  <si>
+    <t>Invoice1499983</t>
+  </si>
+  <si>
+    <t>Neil2892</t>
+  </si>
+  <si>
+    <t>Candy07dw</t>
+  </si>
+  <si>
+    <t>Invoice1348400</t>
+  </si>
+  <si>
+    <t>Invoice1494112</t>
+  </si>
+  <si>
+    <t>Laura036q</t>
+  </si>
+  <si>
+    <t>Lucye7o4</t>
+  </si>
+  <si>
+    <t>Invoice1511691</t>
+  </si>
+  <si>
+    <t>Invoice1825842</t>
+  </si>
+  <si>
+    <t>Invoice1393659</t>
+  </si>
+  <si>
+    <t>Invoice1881222</t>
   </si>
 </sst>
 </file>
@@ -1345,19 +1381,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1449,19 +1485,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Flow Type</t>
   </si>
@@ -245,6 +245,30 @@
   </si>
   <si>
     <t>Invoice1669556</t>
+  </si>
+  <si>
+    <t>Invoice1394806</t>
+  </si>
+  <si>
+    <t>Invoice1730154</t>
+  </si>
+  <si>
+    <t>Alicerlzq</t>
+  </si>
+  <si>
+    <t>Cloris629k</t>
+  </si>
+  <si>
+    <t>Invoice1665029</t>
+  </si>
+  <si>
+    <t>Invoice1809241</t>
+  </si>
+  <si>
+    <t>Frances6b1j</t>
+  </si>
+  <si>
+    <t>Henryd777</t>
   </si>
 </sst>
 </file>
@@ -1345,19 +1369,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1449,19 +1473,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Flow Type</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Henryd777</t>
+  </si>
+  <si>
+    <t>Invoice1324315</t>
+  </si>
+  <si>
+    <t>Invoice1592708</t>
+  </si>
+  <si>
+    <t>Julie3396</t>
+  </si>
+  <si>
+    <t>Terencet18o</t>
   </si>
 </sst>
 </file>
@@ -1369,19 +1381,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1473,19 +1485,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Flow Type</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>Terencet18o</t>
+  </si>
+  <si>
+    <t>Invoice1338448</t>
+  </si>
+  <si>
+    <t>Invoice1302475</t>
+  </si>
+  <si>
+    <t>Lassie9p48</t>
+  </si>
+  <si>
+    <t>Chloeb3m4</t>
   </si>
 </sst>
 </file>
@@ -1381,19 +1393,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1485,19 +1497,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Flow Type</t>
   </si>
@@ -245,6 +245,120 @@
   </si>
   <si>
     <t>Invoice1669556</t>
+  </si>
+  <si>
+    <t>Invoice1668723</t>
+  </si>
+  <si>
+    <t>Invoice1327340</t>
+  </si>
+  <si>
+    <t>Florence4726</t>
+  </si>
+  <si>
+    <t>Jane1cv7</t>
+  </si>
+  <si>
+    <t>Invoice1574872</t>
+  </si>
+  <si>
+    <t>Invoice1775042</t>
+  </si>
+  <si>
+    <t>Kelsey91l2</t>
+  </si>
+  <si>
+    <t>Invoice1351785</t>
+  </si>
+  <si>
+    <t>Invoice1475559</t>
+  </si>
+  <si>
+    <t>testVault</t>
+  </si>
+  <si>
+    <t>Cloris629k</t>
+  </si>
+  <si>
+    <t>Invoice1864933</t>
+  </si>
+  <si>
+    <t>Invoice1665911</t>
+  </si>
+  <si>
+    <t>testVaultData</t>
+  </si>
+  <si>
+    <t>Invoice1716194</t>
+  </si>
+  <si>
+    <t>Invoice1839966</t>
+  </si>
+  <si>
+    <t>testVaultData3</t>
+  </si>
+  <si>
+    <t>Invoice1889717</t>
+  </si>
+  <si>
+    <t>Invoice1713456</t>
+  </si>
+  <si>
+    <t>Invoice1718220</t>
+  </si>
+  <si>
+    <t>Invoice1371455</t>
+  </si>
+  <si>
+    <t>testRPA</t>
+  </si>
+  <si>
+    <t>Invoice1495648</t>
+  </si>
+  <si>
+    <t>Invoice1714736</t>
+  </si>
+  <si>
+    <t>testRPA2</t>
+  </si>
+  <si>
+    <t>Invoice1806244</t>
+  </si>
+  <si>
+    <t>Invoice1710611</t>
+  </si>
+  <si>
+    <t>testRPA10</t>
+  </si>
+  <si>
+    <t>Invoice1538991</t>
+  </si>
+  <si>
+    <t>Invoice1989897</t>
+  </si>
+  <si>
+    <t>SCF001</t>
+  </si>
+  <si>
+    <t>BuyerTest002</t>
+  </si>
+  <si>
+    <t>Invoice1893748</t>
+  </si>
+  <si>
+    <t>Invoice1561308</t>
+  </si>
+  <si>
+    <t>BuyerTest</t>
+  </si>
+  <si>
+    <t>Invoice1498035</t>
+  </si>
+  <si>
+    <t>Invoice1734290</t>
+  </si>
+  <si>
+    <t>SCF1024</t>
   </si>
 </sst>
 </file>
@@ -1345,19 +1459,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1449,19 +1563,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Flow Type</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>Chloeb3m4</t>
+  </si>
+  <si>
+    <t>Invoice1735311</t>
+  </si>
+  <si>
+    <t>Invoice1858875</t>
+  </si>
+  <si>
+    <t>Aprilwi19</t>
+  </si>
+  <si>
+    <t>Iris6cr3</t>
   </si>
 </sst>
 </file>
@@ -1393,19 +1405,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1497,19 +1509,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Flow Type</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>Iris6cr3</t>
+  </si>
+  <si>
+    <t>Invoice1497179</t>
+  </si>
+  <si>
+    <t>Invoice1764610</t>
+  </si>
+  <si>
+    <t>Edwardct2l</t>
+  </si>
+  <si>
+    <t>Aviva4x68</t>
   </si>
 </sst>
 </file>
@@ -1405,19 +1417,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1509,19 +1521,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Flow Type</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>Aviva4x68</t>
+  </si>
+  <si>
+    <t>Invoice1590684</t>
+  </si>
+  <si>
+    <t>Invoice1305462</t>
+  </si>
+  <si>
+    <t>tianmumu2</t>
+  </si>
+  <si>
+    <t>buyerLi</t>
   </si>
 </sst>
 </file>
@@ -1417,19 +1429,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1521,19 +1533,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Flow Type</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>buyerLi</t>
+  </si>
+  <si>
+    <t>Invoice1593591</t>
+  </si>
+  <si>
+    <t>Invoice1731514</t>
+  </si>
+  <si>
+    <t>Rachelx741</t>
+  </si>
+  <si>
+    <t>Warnerr68r</t>
   </si>
 </sst>
 </file>
@@ -1429,19 +1441,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1533,19 +1545,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>Flow Type</t>
   </si>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>Warnerr68r</t>
+  </si>
+  <si>
+    <t>Invoice1722539</t>
+  </si>
+  <si>
+    <t>Invoice1499561</t>
+  </si>
+  <si>
+    <t>Cassie551n</t>
+  </si>
+  <si>
+    <t>Peter849y</t>
+  </si>
+  <si>
+    <t>Invoice1477894</t>
+  </si>
+  <si>
+    <t>Invoice1803528</t>
+  </si>
+  <si>
+    <t>Sherryy6j2</t>
+  </si>
+  <si>
+    <t>Brittanyt5hz</t>
   </si>
 </sst>
 </file>
@@ -1441,19 +1465,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1545,19 +1569,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Flow Type</t>
   </si>
@@ -365,6 +365,51 @@
   </si>
   <si>
     <t>Brittanyt5hz</t>
+  </si>
+  <si>
+    <t>Invoice1893621</t>
+  </si>
+  <si>
+    <t>Invoice1567151</t>
+  </si>
+  <si>
+    <t>Carolinehyme</t>
+  </si>
+  <si>
+    <t>Augustg96e</t>
+  </si>
+  <si>
+    <t>Invoice1509732</t>
+  </si>
+  <si>
+    <t>Invoice1785312</t>
+  </si>
+  <si>
+    <t>Demig486</t>
+  </si>
+  <si>
+    <t>Invoice1305380</t>
+  </si>
+  <si>
+    <t>Invoice1869785</t>
+  </si>
+  <si>
+    <t>Vera0t88</t>
+  </si>
+  <si>
+    <t>Martin0w38</t>
+  </si>
+  <si>
+    <t>Invoice1880037</t>
+  </si>
+  <si>
+    <t>Invoice1567029</t>
+  </si>
+  <si>
+    <t>Conniebb30</t>
+  </si>
+  <si>
+    <t>Brittanya0s1</t>
   </si>
 </sst>
 </file>
@@ -1465,19 +1510,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1569,19 +1614,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
   <si>
     <t>Flow Type</t>
   </si>
@@ -410,6 +410,48 @@
   </si>
   <si>
     <t>Brittanya0s1</t>
+  </si>
+  <si>
+    <t>Invoice1813994</t>
+  </si>
+  <si>
+    <t>Invoice1535225</t>
+  </si>
+  <si>
+    <t>Mariah2du9</t>
+  </si>
+  <si>
+    <t>Miriam7b46</t>
+  </si>
+  <si>
+    <t>Invoice1810835</t>
+  </si>
+  <si>
+    <t>Invoice1817671</t>
+  </si>
+  <si>
+    <t>Evelyn78x4</t>
+  </si>
+  <si>
+    <t>Philipq4t8</t>
+  </si>
+  <si>
+    <t>Invoice1509410</t>
+  </si>
+  <si>
+    <t>Invoice1775774</t>
+  </si>
+  <si>
+    <t>Adam5p3i</t>
+  </si>
+  <si>
+    <t>Elainet8mc</t>
+  </si>
+  <si>
+    <t>Invoice1813848</t>
+  </si>
+  <si>
+    <t>Invoice1852273</t>
   </si>
 </sst>
 </file>
@@ -1510,19 +1552,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1614,19 +1656,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/excel/HistoricalExcel.xlsx
+++ b/src/test/resources/testData/excel/HistoricalExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="130">
   <si>
     <t>Flow Type</t>
   </si>
@@ -452,6 +452,78 @@
   </si>
   <si>
     <t>Invoice1852273</t>
+  </si>
+  <si>
+    <t>Invoice1762568</t>
+  </si>
+  <si>
+    <t>Invoice1891928</t>
+  </si>
+  <si>
+    <t>Tammy4nrp</t>
+  </si>
+  <si>
+    <t>Paula68de</t>
+  </si>
+  <si>
+    <t>Invoice1785253</t>
+  </si>
+  <si>
+    <t>Invoice1789257</t>
+  </si>
+  <si>
+    <t>Serenasf86</t>
+  </si>
+  <si>
+    <t>Sheilap3ut</t>
+  </si>
+  <si>
+    <t>Invoice1577128</t>
+  </si>
+  <si>
+    <t>Invoice1815957</t>
+  </si>
+  <si>
+    <t>Frieda6uw6</t>
+  </si>
+  <si>
+    <t>Stuart026l</t>
+  </si>
+  <si>
+    <t>Invoice1526951</t>
+  </si>
+  <si>
+    <t>Invoice1470216</t>
+  </si>
+  <si>
+    <t>Invoice1324145</t>
+  </si>
+  <si>
+    <t>Invoice1758500</t>
+  </si>
+  <si>
+    <t>Invoice1734275</t>
+  </si>
+  <si>
+    <t>Invoice1515732</t>
+  </si>
+  <si>
+    <t>liulili</t>
+  </si>
+  <si>
+    <t>Garybn51</t>
+  </si>
+  <si>
+    <t>Invoice1878624</t>
+  </si>
+  <si>
+    <t>Invoice1763985</t>
+  </si>
+  <si>
+    <t>Invoice1720881</t>
+  </si>
+  <si>
+    <t>Invoice1873346</t>
   </si>
 </sst>
 </file>
@@ -1552,19 +1624,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D2" s="11">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -1656,19 +1728,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6">
         <v>44782</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
